--- a/requirements/ModelCatalogRequirements.xlsx
+++ b/requirements/ModelCatalogRequirements.xlsx
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="324">
   <si>
     <t>What?</t>
   </si>
@@ -940,9 +940,6 @@
     <t>Variables should be grouped according to a theme.</t>
   </si>
   <si>
-    <t>General comment: URI rename</t>
-  </si>
-  <si>
     <t>What is the spatial resolution of the model</t>
   </si>
   <si>
@@ -974,9 +971,6 @@
   </si>
   <si>
     <t>---</t>
-  </si>
-  <si>
-    <t>sdm:Model, sd:hasVersion,sdm:ModelVersion</t>
   </si>
   <si>
     <t>Defined in Software description ontology</t>
@@ -1033,15 +1027,6 @@
     <t>Grid is a subclass of DatasetSpecification. To be expanded with additional metadata in future releases of the ontology</t>
   </si>
   <si>
-    <t>sdm:ModelConfiguration, sdm:hasTimeStep, sdm:TimeStep</t>
-  </si>
-  <si>
-    <t>sdm:TimeStep, sdm:hasValue, xsd:float</t>
-  </si>
-  <si>
-    <t>sdm:TimeStep, sd:usesUnits, sd:Unit</t>
-  </si>
-  <si>
     <t>What are the units in which the time step of the model is measured? (hours, days, etc.)</t>
   </si>
   <si>
@@ -1052,9 +1037,6 @@
   </si>
   <si>
     <t>sd:VariablePresentation, sd:usesUnit, sd:Unit</t>
-  </si>
-  <si>
-    <t>Which variables can you do an intervention on (if any) on a calibration?</t>
   </si>
   <si>
     <t>sd:VariablePresentation, sd:hasLongName, xsd:string</t>
@@ -1075,15 +1057,6 @@
     <t>sdm:Model, sdm:hasModelCategory, xsd:string</t>
   </si>
   <si>
-    <t>sdm:ModelConfiguration, sd:hasInvocationScript, xsd:anyURI</t>
-  </si>
-  <si>
-    <t>sdm:Model, sd:hasAssumptions, xsd:string</t>
-  </si>
-  <si>
-    <t>sdm:ModelConfiguration, sd:hasAssumptions, xsd:string</t>
-  </si>
-  <si>
     <t>sdm:ModelConfiguration, sdm:hasProcess, sdm:Process</t>
   </si>
   <si>
@@ -1091,9 +1064,6 @@
   </si>
   <si>
     <t>sdm:CausalDiagram, sdm:hasPart, sdm:Process</t>
-  </si>
-  <si>
-    <t>sdm:ModelVersion, sd:hasVersionNumber, xsd:string</t>
   </si>
   <si>
     <t>sdm:ModelConfiguration, sd:hasImplementationScriptLocation, xsd:anyURI</t>
@@ -1114,13 +1084,7 @@
     <t>Need to know the grid size at which the model operates (if rectangular)</t>
   </si>
   <si>
-    <t>sdm:Model,sdm:hasSpatialResolution, sdm:SpatialResolution, sd:hasValue, sd:hasUnits</t>
-  </si>
-  <si>
     <t>Not implemented on this version of the ontology</t>
-  </si>
-  <si>
-    <t>sdm:Model, sdm:hasCoordinateSystem, xsd:String</t>
   </si>
   <si>
     <t>sdm:Model, sdm:hasEquation, xsd:string</t>
@@ -1132,9 +1096,6 @@
     <t>Model configurations are models too</t>
   </si>
   <si>
-    <t>Subclasses of sdm:Grid: sdm:RectangularGrid, sdm:TriangularGrid, sdm:HexagonalGrid, sdm:HybridGrid, sdm:UnstructuredGrid, sdm:BlockStructuredGrid</t>
-  </si>
-  <si>
     <t>A model configuration may have multiple calibrations exposing different functionality or adapted to different regions</t>
   </si>
   <si>
@@ -1142,9 +1103,6 @@
   </si>
   <si>
     <t>Does the region have a name?</t>
-  </si>
-  <si>
-    <t>sdm:ModelConfiguration, sdm:hasCalibration, sdm:Calibration</t>
   </si>
   <si>
     <t>sdm:ModelConfiguration, sdm:hasRegion, sdm:Region</t>
@@ -1160,15 +1118,6 @@
   </si>
   <si>
     <t>sdm:Region, schema:name, xsd:String</t>
-  </si>
-  <si>
-    <t>sdm:Calibration, sdm:calibratedVariable, sd:VariablePresentation</t>
-  </si>
-  <si>
-    <t>sdm:Calibration, sdm:targetVariable, sd:VariablePresentation</t>
-  </si>
-  <si>
-    <t>sdm:Calibration, sdm:variableForIntervention, sd:VariablePresentation</t>
   </si>
   <si>
     <t>Needed to represent the variables that are tweakable in the calibration</t>
@@ -1191,12 +1140,81 @@
   <si>
     <t>To be expanded in a future version of the ontology</t>
   </si>
+  <si>
+    <t>How is this specific model tuned? Expert tuning? Auto-tuned? Calibrated Model? Validated Model</t>
+  </si>
+  <si>
+    <t>Is there a preliminary result table of the model</t>
+  </si>
+  <si>
+    <t>How were the parameters assigned in this model configuration?</t>
+  </si>
+  <si>
+    <t>It could be manually or expert-tuned</t>
+  </si>
+  <si>
+    <t>Which variables can you adjust (if any) on a calibration?</t>
+  </si>
+  <si>
+    <t>sdm:Calibration, sdm:adjustableVariable, sd:VariablePresentation</t>
+  </si>
+  <si>
+    <t>sdm:Calibration , sdm:parameterAssignmentMethod, xsd:String</t>
+  </si>
+  <si>
+    <t>sdm:Model, sd:hasVersion,sd:SoftwareVersion</t>
+  </si>
+  <si>
+    <t>sdm:ModelConfiguration, sdm:hasOutputTimeInterval, sdm:TimeInterval</t>
+  </si>
+  <si>
+    <t>sdm:TimeInterval, sdm:hasValue, xsd:float</t>
+  </si>
+  <si>
+    <t>sdm:TimeInterval, sd:usesUnits, sd:Unit</t>
+  </si>
+  <si>
+    <t>sdm:Model, sd:hasAssumption, xsd:string</t>
+  </si>
+  <si>
+    <t>sdm:ModelVersion, sd:hasVersionId, xsd:string</t>
+  </si>
+  <si>
+    <t>sdm:Grid,sdm:hasSpatialResolution, sdm:SpatialResolution, sd:hasValue, sd:hasUnits</t>
+  </si>
+  <si>
+    <t>sdm:Grid, sdm:hasCoordinateSystem, xsd:String</t>
+  </si>
+  <si>
+    <t>Subclasses of sdm:Grid, sdm:hasShape, xsd:String</t>
+  </si>
+  <si>
+    <t>sdm:ModelConfiguration, sdm:hasCalibration, sdm:ModelConfiguration</t>
+  </si>
+  <si>
+    <t>sdm:ModelConfiguration, sdm:calibratedVariable, sd:VariablePresentation</t>
+  </si>
+  <si>
+    <t>sdm:Calibration, sdm:calibrationTargetVariable, sd:VariablePresentation</t>
+  </si>
+  <si>
+    <t>sdm:ModelConfiguration, sdm:parameterAssignment, xsd:string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter assignment can be expert-configured, calibration, etc </t>
+  </si>
+  <si>
+    <t>sdm:ModelConfiguration, sdm:modelResultTable, xsd:string</t>
+  </si>
+  <si>
+    <t>sdm:ModelConfiguration, sd:hasAssumption, xsd:string</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1211,8 +1229,15 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1263,6 +1288,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -1274,7 +1304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1321,11 +1351,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1461,9 +1520,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1471,23 +1527,38 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1827,7 +1898,7 @@
       <c r="AC1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1872,7 +1943,7 @@
       <c r="AC2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
@@ -1915,7 +1986,7 @@
       <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
@@ -1958,7 +2029,7 @@
       <c r="AC4" s="5"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
@@ -2001,7 +2072,7 @@
       <c r="AC5" s="5"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
@@ -2042,7 +2113,7 @@
       <c r="AC6" s="5"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="8" t="s">
         <v>50</v>
       </c>
@@ -2083,7 +2154,7 @@
       <c r="AC7" s="5"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="8" t="s">
         <v>60</v>
       </c>
@@ -2124,7 +2195,7 @@
       <c r="AC8" s="5"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="8" t="s">
         <v>66</v>
       </c>
@@ -2165,7 +2236,7 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="8" t="s">
         <v>75</v>
       </c>
@@ -2206,7 +2277,7 @@
       <c r="AC10" s="5"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="8" t="s">
         <v>79</v>
       </c>
@@ -2247,7 +2318,7 @@
       <c r="AC11" s="5"/>
     </row>
     <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="8" t="s">
         <v>85</v>
       </c>
@@ -2288,7 +2359,7 @@
       <c r="AC12" s="5"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="8" t="s">
         <v>92</v>
       </c>
@@ -2329,7 +2400,7 @@
       <c r="AC13" s="5"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="8" t="s">
         <v>98</v>
       </c>
@@ -2370,7 +2441,7 @@
       <c r="AC14" s="5"/>
     </row>
     <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="49" t="s">
         <v>106</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2413,7 +2484,7 @@
       <c r="AC15" s="5"/>
     </row>
     <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="8" t="s">
         <v>112</v>
       </c>
@@ -2454,7 +2525,7 @@
       <c r="AC16" s="5"/>
     </row>
     <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="8" t="s">
         <v>121</v>
       </c>
@@ -2493,7 +2564,7 @@
       <c r="AC17" s="5"/>
     </row>
     <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="8" t="s">
         <v>129</v>
       </c>
@@ -2534,7 +2605,7 @@
       <c r="AC18" s="5"/>
     </row>
     <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="8" t="s">
         <v>137</v>
       </c>
@@ -60438,10 +60509,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1253"/>
+  <dimension ref="A1:E1252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -60472,24 +60543,24 @@
     </row>
     <row r="2" spans="1:5" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
-        <f t="shared" ref="A3:A47" si="0">CONCATENATE("CQ",ROW(A3)-2)</f>
+        <f t="shared" ref="A3:A50" si="0">CONCATENATE("CQ",ROW(A3)-2)</f>
         <v>CQ1</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -60498,11 +60569,11 @@
       <c r="C3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>246</v>
+      <c r="D3" s="60" t="s">
+        <v>308</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -60516,11 +60587,11 @@
       <c r="C4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>248</v>
+      <c r="D4" s="60" t="s">
+        <v>246</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -60534,11 +60605,11 @@
       <c r="C5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>249</v>
+      <c r="D5" s="60" t="s">
+        <v>247</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -60552,11 +60623,11 @@
       <c r="C6" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>251</v>
+      <c r="D6" s="60" t="s">
+        <v>249</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -60570,11 +60641,11 @@
       <c r="C7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>252</v>
+      <c r="D7" s="60" t="s">
+        <v>250</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -60589,10 +60660,10 @@
         <v>91</v>
       </c>
       <c r="D8" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="54" t="s">
         <v>253</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -60606,11 +60677,11 @@
       <c r="C9" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>254</v>
+      <c r="D9" s="60" t="s">
+        <v>252</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -60624,11 +60695,11 @@
       <c r="C10" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>251</v>
+      <c r="D10" s="60" t="s">
+        <v>249</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -60642,11 +60713,11 @@
       <c r="C11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>252</v>
+      <c r="D11" s="60" t="s">
+        <v>250</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -60654,17 +60725,17 @@
         <f t="shared" si="0"/>
         <v>CQ10</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" s="54" t="s">
         <v>253</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -60672,17 +60743,17 @@
         <f t="shared" si="0"/>
         <v>CQ11</v>
       </c>
-      <c r="B13" s="52" t="s">
-        <v>256</v>
+      <c r="B13" s="51" t="s">
+        <v>254</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="52" t="s">
-        <v>257</v>
+      <c r="D13" s="60" t="s">
+        <v>255</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -60690,14 +60761,14 @@
         <f t="shared" si="0"/>
         <v>CQ12</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="60" t="s">
         <v>260</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>261</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>262</v>
       </c>
       <c r="E14" s="23"/>
     </row>
@@ -60706,14 +60777,14 @@
         <f t="shared" si="0"/>
         <v>CQ13</v>
       </c>
-      <c r="B15" s="52" t="s">
-        <v>258</v>
+      <c r="B15" s="51" t="s">
+        <v>256</v>
       </c>
-      <c r="C15" s="52" t="s">
-        <v>259</v>
+      <c r="C15" s="51" t="s">
+        <v>257</v>
       </c>
-      <c r="D15" s="52" t="s">
-        <v>263</v>
+      <c r="D15" s="60" t="s">
+        <v>261</v>
       </c>
       <c r="E15" s="23"/>
     </row>
@@ -60728,8 +60799,8 @@
       <c r="C16" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>265</v>
+      <c r="D16" s="60" t="s">
+        <v>309</v>
       </c>
       <c r="E16" s="23"/>
     </row>
@@ -60742,10 +60813,10 @@
         <v>147</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>266</v>
+      <c r="D17" s="60" t="s">
+        <v>310</v>
       </c>
       <c r="E17" s="23"/>
     </row>
@@ -60755,13 +60826,13 @@
         <v>CQ16</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>267</v>
+      <c r="D18" s="60" t="s">
+        <v>311</v>
       </c>
       <c r="E18" s="23"/>
     </row>
@@ -60776,11 +60847,11 @@
       <c r="C19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>271</v>
+      <c r="D19" s="60" t="s">
+        <v>266</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -60794,11 +60865,11 @@
       <c r="C20" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>273</v>
+      <c r="D20" s="60" t="s">
+        <v>267</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -60812,11 +60883,11 @@
       <c r="C21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>274</v>
+      <c r="D21" s="60" t="s">
+        <v>268</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -60830,11 +60901,11 @@
       <c r="C22" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>276</v>
+      <c r="D22" s="60" t="s">
+        <v>270</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -60848,8 +60919,8 @@
       <c r="C23" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="26" t="s">
-        <v>277</v>
+      <c r="D23" s="60" t="s">
+        <v>271</v>
       </c>
       <c r="E23" s="26"/>
     </row>
@@ -60864,8 +60935,8 @@
       <c r="C24" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>278</v>
+      <c r="D24" s="60" t="s">
+        <v>272</v>
       </c>
       <c r="E24" s="23"/>
     </row>
@@ -60880,11 +60951,11 @@
       <c r="C25" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>279</v>
+      <c r="D25" s="60" t="s">
+        <v>276</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -60898,11 +60969,11 @@
       <c r="C26" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>280</v>
+      <c r="D26" s="60" t="s">
+        <v>312</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -60916,11 +60987,11 @@
       <c r="C27" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="D27" s="26" t="s">
-        <v>281</v>
+      <c r="D27" s="60" t="s">
+        <v>323</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -60934,8 +61005,8 @@
       <c r="C28" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="26" t="s">
-        <v>282</v>
+      <c r="D28" s="60" t="s">
+        <v>273</v>
       </c>
       <c r="E28" s="26"/>
     </row>
@@ -60950,8 +61021,8 @@
       <c r="C29" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>283</v>
+      <c r="D29" s="60" t="s">
+        <v>274</v>
       </c>
       <c r="E29" s="26"/>
     </row>
@@ -60966,8 +61037,8 @@
       <c r="C30" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D30" s="26" t="s">
-        <v>284</v>
+      <c r="D30" s="60" t="s">
+        <v>275</v>
       </c>
       <c r="E30" s="26"/>
     </row>
@@ -60982,12 +61053,12 @@
       <c r="C31" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>285</v>
+      <c r="D31" s="60" t="s">
+        <v>313</v>
       </c>
       <c r="E31" s="26"/>
     </row>
-    <row r="32" spans="1:5" s="40" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="str">
         <f t="shared" si="0"/>
         <v>CQ30</v>
@@ -60995,14 +61066,14 @@
       <c r="B32" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="56" t="s">
-        <v>290</v>
+      <c r="C32" s="55" t="s">
+        <v>280</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>286</v>
+      <c r="D32" s="60" t="s">
+        <v>276</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="40" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
@@ -61013,17 +61084,17 @@
       <c r="B33" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="C33" s="56" t="s">
-        <v>290</v>
+      <c r="C33" s="55" t="s">
+        <v>280</v>
       </c>
-      <c r="D33" s="26" t="s">
-        <v>287</v>
+      <c r="D33" s="60" t="s">
+        <v>277</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="40" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="str">
         <f t="shared" si="0"/>
         <v>CQ32</v>
@@ -61032,28 +61103,28 @@
         <v>213</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
-      <c r="D34" s="26" t="s">
-        <v>288</v>
+      <c r="D34" s="60" t="s">
+        <v>278</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="40" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="str">
         <f t="shared" si="0"/>
         <v>CQ33</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
-      <c r="D35" s="26" t="s">
-        <v>292</v>
+      <c r="D35" s="60" t="s">
+        <v>314</v>
       </c>
       <c r="E35" s="26"/>
     </row>
@@ -61062,13 +61133,13 @@
         <f t="shared" si="0"/>
         <v>CQ34</v>
       </c>
-      <c r="B36" s="57" t="s">
-        <v>236</v>
+      <c r="B36" s="56" t="s">
+        <v>235</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57" t="s">
-        <v>293</v>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="40" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
@@ -61077,11 +61148,11 @@
         <v>CQ35</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C37" s="26"/>
-      <c r="D37" s="26" t="s">
-        <v>294</v>
+      <c r="D37" s="60" t="s">
+        <v>315</v>
       </c>
       <c r="E37" s="26"/>
     </row>
@@ -61091,29 +61162,29 @@
         <v>CQ36</v>
       </c>
       <c r="B38" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>295</v>
+      <c r="D38" s="60" t="s">
+        <v>283</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="40" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="40" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="str">
         <f t="shared" si="0"/>
         <v>CQ37</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C39" s="26"/>
-      <c r="D39" s="26" t="s">
-        <v>298</v>
+      <c r="D39" s="60" t="s">
+        <v>316</v>
       </c>
       <c r="E39" s="26"/>
     </row>
@@ -61123,13 +61194,13 @@
         <v>CQ38</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
-      <c r="D40" s="26" t="s">
-        <v>302</v>
+      <c r="D40" s="60" t="s">
+        <v>317</v>
       </c>
       <c r="E40" s="26"/>
     </row>
@@ -61139,14 +61210,14 @@
         <v>CQ39</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C41" s="26"/>
-      <c r="D41" s="26" t="s">
-        <v>303</v>
+      <c r="D41" s="60" t="s">
+        <v>289</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="41" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
@@ -61155,59 +61226,59 @@
         <v>CQ40</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C42" s="26"/>
-      <c r="D42" s="26" t="s">
-        <v>305</v>
+      <c r="D42" s="60" t="s">
+        <v>291</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="41" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="str">
         <f t="shared" si="0"/>
         <v>CQ41</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C43" s="26"/>
-      <c r="D43" s="26" t="s">
-        <v>307</v>
+      <c r="D43" s="60" t="s">
+        <v>293</v>
       </c>
       <c r="E43" s="26"/>
     </row>
-    <row r="44" spans="1:5" s="40" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="str">
         <f t="shared" si="0"/>
         <v>CQ42</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
-      <c r="D44" s="26" t="s">
-        <v>308</v>
+      <c r="D44" s="60" t="s">
+        <v>318</v>
       </c>
       <c r="E44" s="26"/>
     </row>
-    <row r="45" spans="1:5" s="40" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="str">
         <f t="shared" si="0"/>
         <v>CQ43</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
-      <c r="D45" s="26" t="s">
-        <v>309</v>
+      <c r="D45" s="60" t="s">
+        <v>319</v>
       </c>
       <c r="E45" s="26"/>
     </row>
@@ -61217,86 +61288,120 @@
         <v>CQ44</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
-      <c r="D46" s="26" t="s">
-        <v>316</v>
+      <c r="D46" s="60" t="s">
+        <v>299</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="40" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="str">
+    <row r="47" spans="1:5" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="57" t="str">
         <f t="shared" si="0"/>
         <v>CQ45</v>
       </c>
-      <c r="B47" s="26" t="s">
-        <v>272</v>
+      <c r="B47" s="57" t="s">
+        <v>305</v>
       </c>
-      <c r="C47" s="26" t="s">
-        <v>311</v>
+      <c r="C47" s="57" t="s">
+        <v>294</v>
       </c>
-      <c r="D47" s="26" t="s">
-        <v>310</v>
+      <c r="D47" s="61" t="s">
+        <v>306</v>
       </c>
-      <c r="E47" s="26"/>
-    </row>
-    <row r="48" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-    </row>
-    <row r="49" spans="1:3" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
-      <c r="C49" s="49" t="s">
-        <v>234</v>
+      <c r="E47" s="57"/>
+    </row>
+    <row r="48" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>CQ46</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-    </row>
-    <row r="51" spans="1:3" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="C48" s="59" t="s">
+        <v>321</v>
+      </c>
+      <c r="D48" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="E48" s="59"/>
+    </row>
+    <row r="49" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>CQ47</v>
+      </c>
+      <c r="B49" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="C49" s="59"/>
+      <c r="D49" s="62" t="s">
+        <v>322</v>
+      </c>
+      <c r="E49" s="59"/>
+    </row>
+    <row r="50" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>CQ48</v>
+      </c>
+      <c r="B50" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="C50" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="D50" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="E50" s="59"/>
+    </row>
+    <row r="51" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47"/>
     </row>
-    <row r="52" spans="1:3" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47"/>
     </row>
-    <row r="53" spans="1:3" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47"/>
     </row>
-    <row r="54" spans="1:3" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47"/>
     </row>
-    <row r="55" spans="1:3" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47"/>
     </row>
-    <row r="56" spans="1:3" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47"/>
     </row>
-    <row r="57" spans="1:3" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47"/>
     </row>
-    <row r="58" spans="1:3" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47"/>
     </row>
-    <row r="59" spans="1:3" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47"/>
     </row>
-    <row r="60" spans="1:3" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="47"/>
     </row>
-    <row r="61" spans="1:3" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47"/>
     </row>
-    <row r="62" spans="1:3" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="47"/>
     </row>
-    <row r="63" spans="1:3" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47"/>
     </row>
-    <row r="64" spans="1:3" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47"/>
     </row>
     <row r="65" spans="1:1" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -61344,11 +61449,11 @@
     <row r="79" spans="1:1" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="47"/>
     </row>
-    <row r="80" spans="1:1" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="47"/>
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="46"/>
     </row>
     <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="46"/>
+      <c r="A81" s="42"/>
     </row>
     <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="42"/>
@@ -64862,9 +64967,6 @@
     </row>
     <row r="1252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1252" s="42"/>
-    </row>
-    <row r="1253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1253" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/requirements/ModelCatalogRequirements.xlsx
+++ b/requirements/ModelCatalogRequirements.xlsx
@@ -18,6 +18,7 @@
     <sheet name="June 2019 (v1.0.0)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -233,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="327">
   <si>
     <t>What?</t>
   </si>
@@ -1159,9 +1160,6 @@
     <t>sdm:Calibration, sdm:adjustableVariable, sd:VariablePresentation</t>
   </si>
   <si>
-    <t>sdm:Calibration , sdm:parameterAssignmentMethod, xsd:String</t>
-  </si>
-  <si>
     <t>sdm:Model, sd:hasVersion,sd:SoftwareVersion</t>
   </si>
   <si>
@@ -1208,6 +1206,18 @@
   </si>
   <si>
     <t>sdm:ModelConfiguration, sd:hasAssumption, xsd:string</t>
+  </si>
+  <si>
+    <t>What are the fixed values for parameters or variables in a calibration?</t>
+  </si>
+  <si>
+    <t>sdm:ModelConfiguration , sdm:parameterAssignmentMethod, xsd:String</t>
+  </si>
+  <si>
+    <t>sd:Parameter;sd:ModelConfiguration;sd:hasParameter;sd:hasInput; sdm:hasFixedValue;sdm:hasFixedDataBinding</t>
+  </si>
+  <si>
+    <t>Needed for the calibrations of a model, in order to describe them transparently</t>
   </si>
 </sst>
 </file>
@@ -1520,10 +1530,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1556,6 +1562,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1898,7 +1908,7 @@
       <c r="AC1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="61" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1943,7 +1953,7 @@
       <c r="AC2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
@@ -1986,7 +1996,7 @@
       <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
@@ -2029,7 +2039,7 @@
       <c r="AC4" s="5"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
@@ -2072,7 +2082,7 @@
       <c r="AC5" s="5"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
@@ -2113,7 +2123,7 @@
       <c r="AC6" s="5"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="8" t="s">
         <v>50</v>
       </c>
@@ -2154,7 +2164,7 @@
       <c r="AC7" s="5"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="8" t="s">
         <v>60</v>
       </c>
@@ -2195,7 +2205,7 @@
       <c r="AC8" s="5"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="8" t="s">
         <v>66</v>
       </c>
@@ -2236,7 +2246,7 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="8" t="s">
         <v>75</v>
       </c>
@@ -2277,7 +2287,7 @@
       <c r="AC10" s="5"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="8" t="s">
         <v>79</v>
       </c>
@@ -2318,7 +2328,7 @@
       <c r="AC11" s="5"/>
     </row>
     <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="8" t="s">
         <v>85</v>
       </c>
@@ -2359,7 +2369,7 @@
       <c r="AC12" s="5"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="8" t="s">
         <v>92</v>
       </c>
@@ -2400,7 +2410,7 @@
       <c r="AC13" s="5"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="8" t="s">
         <v>98</v>
       </c>
@@ -2441,7 +2451,7 @@
       <c r="AC14" s="5"/>
     </row>
     <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="61" t="s">
         <v>106</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2484,7 +2494,7 @@
       <c r="AC15" s="5"/>
     </row>
     <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="8" t="s">
         <v>112</v>
       </c>
@@ -2525,7 +2535,7 @@
       <c r="AC16" s="5"/>
     </row>
     <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="8" t="s">
         <v>121</v>
       </c>
@@ -2564,7 +2574,7 @@
       <c r="AC17" s="5"/>
     </row>
     <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="8" t="s">
         <v>129</v>
       </c>
@@ -2605,7 +2615,7 @@
       <c r="AC18" s="5"/>
     </row>
     <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="8" t="s">
         <v>137</v>
       </c>
@@ -60511,8 +60521,8 @@
   </sheetPr>
   <dimension ref="A1:E1252"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -60560,7 +60570,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
-        <f t="shared" ref="A3:A50" si="0">CONCATENATE("CQ",ROW(A3)-2)</f>
+        <f t="shared" ref="A3:A51" si="0">CONCATENATE("CQ",ROW(A3)-2)</f>
         <v>CQ1</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -60569,8 +60579,8 @@
       <c r="C3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="60" t="s">
-        <v>308</v>
+      <c r="D3" s="58" t="s">
+        <v>307</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>245</v>
@@ -60587,7 +60597,7 @@
       <c r="C4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="58" t="s">
         <v>246</v>
       </c>
       <c r="E4" s="23" t="s">
@@ -60605,7 +60615,7 @@
       <c r="C5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="58" t="s">
         <v>247</v>
       </c>
       <c r="E5" s="23" t="s">
@@ -60623,7 +60633,7 @@
       <c r="C6" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="58" t="s">
         <v>249</v>
       </c>
       <c r="E6" s="23" t="s">
@@ -60641,7 +60651,7 @@
       <c r="C7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="58" t="s">
         <v>250</v>
       </c>
       <c r="E7" s="23" t="s">
@@ -60662,7 +60672,7 @@
       <c r="D8" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="52" t="s">
         <v>253</v>
       </c>
     </row>
@@ -60677,7 +60687,7 @@
       <c r="C9" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="58" t="s">
         <v>252</v>
       </c>
       <c r="E9" s="23" t="s">
@@ -60695,7 +60705,7 @@
       <c r="C10" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="58" t="s">
         <v>249</v>
       </c>
       <c r="E10" s="23" t="s">
@@ -60713,7 +60723,7 @@
       <c r="C11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="58" t="s">
         <v>250</v>
       </c>
       <c r="E11" s="23" t="s">
@@ -60725,16 +60735,16 @@
         <f t="shared" si="0"/>
         <v>CQ10</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="52" t="s">
         <v>253</v>
       </c>
     </row>
@@ -60743,13 +60753,13 @@
         <f t="shared" si="0"/>
         <v>CQ11</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="49" t="s">
         <v>254</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="58" t="s">
         <v>255</v>
       </c>
       <c r="E13" s="23" t="s">
@@ -60761,13 +60771,13 @@
         <f t="shared" si="0"/>
         <v>CQ12</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="58" t="s">
         <v>260</v>
       </c>
       <c r="E14" s="23"/>
@@ -60777,13 +60787,13 @@
         <f t="shared" si="0"/>
         <v>CQ13</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="58" t="s">
         <v>261</v>
       </c>
       <c r="E15" s="23"/>
@@ -60799,8 +60809,8 @@
       <c r="C16" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="60" t="s">
-        <v>309</v>
+      <c r="D16" s="58" t="s">
+        <v>308</v>
       </c>
       <c r="E16" s="23"/>
     </row>
@@ -60815,8 +60825,8 @@
       <c r="C17" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="D17" s="60" t="s">
-        <v>310</v>
+      <c r="D17" s="58" t="s">
+        <v>309</v>
       </c>
       <c r="E17" s="23"/>
     </row>
@@ -60831,8 +60841,8 @@
       <c r="C18" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="D18" s="60" t="s">
-        <v>311</v>
+      <c r="D18" s="58" t="s">
+        <v>310</v>
       </c>
       <c r="E18" s="23"/>
     </row>
@@ -60847,7 +60857,7 @@
       <c r="C19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="58" t="s">
         <v>266</v>
       </c>
       <c r="E19" s="23" t="s">
@@ -60865,7 +60875,7 @@
       <c r="C20" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="58" t="s">
         <v>267</v>
       </c>
       <c r="E20" s="23" t="s">
@@ -60883,7 +60893,7 @@
       <c r="C21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="58" t="s">
         <v>268</v>
       </c>
       <c r="E21" s="23" t="s">
@@ -60901,7 +60911,7 @@
       <c r="C22" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="58" t="s">
         <v>270</v>
       </c>
       <c r="E22" s="23" t="s">
@@ -60919,7 +60929,7 @@
       <c r="C23" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="58" t="s">
         <v>271</v>
       </c>
       <c r="E23" s="26"/>
@@ -60935,7 +60945,7 @@
       <c r="C24" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="58" t="s">
         <v>272</v>
       </c>
       <c r="E24" s="23"/>
@@ -60951,7 +60961,7 @@
       <c r="C25" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="58" t="s">
         <v>276</v>
       </c>
       <c r="E25" s="23" t="s">
@@ -60969,8 +60979,8 @@
       <c r="C26" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="60" t="s">
-        <v>312</v>
+      <c r="D26" s="58" t="s">
+        <v>311</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>245</v>
@@ -60987,8 +60997,8 @@
       <c r="C27" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="D27" s="60" t="s">
-        <v>323</v>
+      <c r="D27" s="58" t="s">
+        <v>322</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>245</v>
@@ -61005,7 +61015,7 @@
       <c r="C28" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="58" t="s">
         <v>273</v>
       </c>
       <c r="E28" s="26"/>
@@ -61021,7 +61031,7 @@
       <c r="C29" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="58" t="s">
         <v>274</v>
       </c>
       <c r="E29" s="26"/>
@@ -61037,7 +61047,7 @@
       <c r="C30" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="58" t="s">
         <v>275</v>
       </c>
       <c r="E30" s="26"/>
@@ -61053,8 +61063,8 @@
       <c r="C31" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="D31" s="60" t="s">
-        <v>313</v>
+      <c r="D31" s="58" t="s">
+        <v>312</v>
       </c>
       <c r="E31" s="26"/>
     </row>
@@ -61066,10 +61076,10 @@
       <c r="B32" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="58" t="s">
         <v>276</v>
       </c>
       <c r="E32" s="23" t="s">
@@ -61084,10 +61094,10 @@
       <c r="B33" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="58" t="s">
         <v>277</v>
       </c>
       <c r="E33" s="23" t="s">
@@ -61105,7 +61115,7 @@
       <c r="C34" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="58" t="s">
         <v>278</v>
       </c>
       <c r="E34" s="23" t="s">
@@ -61123,8 +61133,8 @@
       <c r="C35" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="D35" s="60" t="s">
-        <v>314</v>
+      <c r="D35" s="58" t="s">
+        <v>313</v>
       </c>
       <c r="E35" s="26"/>
     </row>
@@ -61133,12 +61143,12 @@
         <f t="shared" si="0"/>
         <v>CQ34</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56" t="s">
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54" t="s">
         <v>282</v>
       </c>
     </row>
@@ -61151,8 +61161,8 @@
         <v>236</v>
       </c>
       <c r="C37" s="26"/>
-      <c r="D37" s="60" t="s">
-        <v>315</v>
+      <c r="D37" s="58" t="s">
+        <v>314</v>
       </c>
       <c r="E37" s="26"/>
     </row>
@@ -61167,7 +61177,7 @@
       <c r="C38" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="D38" s="60" t="s">
+      <c r="D38" s="58" t="s">
         <v>283</v>
       </c>
       <c r="E38" s="26" t="s">
@@ -61183,8 +61193,8 @@
         <v>239</v>
       </c>
       <c r="C39" s="26"/>
-      <c r="D39" s="60" t="s">
-        <v>316</v>
+      <c r="D39" s="58" t="s">
+        <v>315</v>
       </c>
       <c r="E39" s="26"/>
     </row>
@@ -61199,8 +61209,8 @@
       <c r="C40" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="D40" s="60" t="s">
-        <v>317</v>
+      <c r="D40" s="58" t="s">
+        <v>316</v>
       </c>
       <c r="E40" s="26"/>
     </row>
@@ -61213,7 +61223,7 @@
         <v>241</v>
       </c>
       <c r="C41" s="26"/>
-      <c r="D41" s="60" t="s">
+      <c r="D41" s="58" t="s">
         <v>289</v>
       </c>
       <c r="E41" s="26" t="s">
@@ -61229,7 +61239,7 @@
         <v>287</v>
       </c>
       <c r="C42" s="26"/>
-      <c r="D42" s="60" t="s">
+      <c r="D42" s="58" t="s">
         <v>291</v>
       </c>
       <c r="E42" s="26" t="s">
@@ -61245,7 +61255,7 @@
         <v>288</v>
       </c>
       <c r="C43" s="26"/>
-      <c r="D43" s="60" t="s">
+      <c r="D43" s="58" t="s">
         <v>293</v>
       </c>
       <c r="E43" s="26"/>
@@ -61261,8 +61271,8 @@
       <c r="C44" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="D44" s="60" t="s">
-        <v>318</v>
+      <c r="D44" s="58" t="s">
+        <v>317</v>
       </c>
       <c r="E44" s="26"/>
     </row>
@@ -61277,8 +61287,8 @@
       <c r="C45" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="D45" s="60" t="s">
-        <v>319</v>
+      <c r="D45" s="58" t="s">
+        <v>318</v>
       </c>
       <c r="E45" s="26"/>
     </row>
@@ -61293,7 +61303,7 @@
       <c r="C46" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="D46" s="60" t="s">
+      <c r="D46" s="58" t="s">
         <v>299</v>
       </c>
       <c r="E46" s="26" t="s">
@@ -61301,69 +61311,82 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="57" t="str">
+      <c r="A47" s="55" t="str">
         <f t="shared" si="0"/>
         <v>CQ45</v>
       </c>
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="55" t="s">
         <v>305</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="D47" s="61" t="s">
+      <c r="D47" s="59" t="s">
         <v>306</v>
       </c>
-      <c r="E47" s="57"/>
+      <c r="E47" s="55"/>
     </row>
     <row r="48" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="58" t="str">
+      <c r="A48" s="56" t="str">
         <f t="shared" si="0"/>
         <v>CQ46</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="56" t="s">
         <v>301</v>
       </c>
-      <c r="C48" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="D48" s="62" t="s">
+      <c r="C48" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="E48" s="59"/>
+      <c r="D48" s="60" t="s">
+        <v>319</v>
+      </c>
+      <c r="E48" s="57"/>
     </row>
     <row r="49" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="58" t="str">
+      <c r="A49" s="56" t="str">
         <f t="shared" si="0"/>
         <v>CQ47</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="57" t="s">
         <v>302</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="62" t="s">
-        <v>322</v>
+      <c r="C49" s="57"/>
+      <c r="D49" s="60" t="s">
+        <v>321</v>
       </c>
-      <c r="E49" s="59"/>
+      <c r="E49" s="57"/>
     </row>
     <row r="50" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="58" t="str">
+      <c r="A50" s="56" t="str">
         <f t="shared" si="0"/>
         <v>CQ48</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="D50" s="62" t="s">
-        <v>307</v>
+      <c r="D50" s="60" t="s">
+        <v>324</v>
       </c>
-      <c r="E50" s="59"/>
+      <c r="E50" s="57"/>
     </row>
     <row r="51" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
+      <c r="A51" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>CQ49</v>
+      </c>
+      <c r="B51" s="57" t="s">
+        <v>323</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="D51" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="E51" s="57"/>
     </row>
     <row r="52" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47"/>

--- a/requirements/ModelCatalogRequirements.xlsx
+++ b/requirements/ModelCatalogRequirements.xlsx
@@ -18,7 +18,6 @@
     <sheet name="June 2019 (v1.0.0)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -35,6 +34,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Thanks for starting this document. For the requirements, I think the main driver must be the competency question, which you have placed under this column. I think that we should just have a list of competency questions, and then explain how we have addressed them. Almost like you have done, but with a little reorganization
 	-Daniel Garijo
@@ -63,6 +63,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Not clear what the range is in some of these.
 	-Daniel Garijo
@@ -84,6 +85,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Sorry, your comments disappeared +dgarijo@isi.edu. I think "variable" is in the commons ontology right? But yes, I agree we should name is variable presentation. 
 And I know that some of these are already in the model. I was just trying to get everything in one place if we're going to add a rationale as well (for some reason, I know this is coming)
@@ -106,6 +108,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>We are capturing this through the dataset specification. Configuration - hasInput-&gt; DatasetSpecification-hasFormat-&gt;F.
 	-Daniel Garijo</t>
@@ -119,6 +122,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Units cannot be a string, otherwise we cannot do automatic unit transformation (at the moment it is that way for simplicity). We need to adopt Jay's standard
 	-Daniel Garijo
@@ -134,6 +138,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>JSON file? It would make sense to have a collection of variables, right? Or an entity called "CAG". To be defined
 	-Daniel Garijo
@@ -149,6 +154,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>This one we have to think it in detail. It may be more than this
 	-Daniel Garijo
@@ -164,6 +170,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>In the slides, Yolanda was mentioning queries such as the variables associated to a process. Are we also going to represent these?
 	-Daniel Garijo
@@ -189,6 +196,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>+dgarijo@isi.edu This would be much easier the other way around where the variables would be assign a column number much like what we did in LinkedEarth
 	-Deborah Khider
@@ -210,6 +218,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>+dgarijo@isi.edu This is probably going to be part of the DatasetSpecification Schema
 	-Deborah Khider</t>
@@ -223,6 +232,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>@dgarijo Not sure what the CAG class would look like. It's really a JSON file
 	-Deborah Khider</t>
@@ -234,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="331">
   <si>
     <t>What?</t>
   </si>
@@ -1136,9 +1146,6 @@
     <t>Needed for reference</t>
   </si>
   <si>
-    <t>sdm:Calibration, sdm:calibrationMethod, xsd:string</t>
-  </si>
-  <si>
     <t>To be expanded in a future version of the ontology</t>
   </si>
   <si>
@@ -1155,9 +1162,6 @@
   </si>
   <si>
     <t>Which variables can you adjust (if any) on a calibration?</t>
-  </si>
-  <si>
-    <t>sdm:Calibration, sdm:adjustableVariable, sd:VariablePresentation</t>
   </si>
   <si>
     <t>sdm:Model, sd:hasVersion,sd:SoftwareVersion</t>
@@ -1193,9 +1197,6 @@
     <t>sdm:ModelConfiguration, sdm:calibratedVariable, sd:VariablePresentation</t>
   </si>
   <si>
-    <t>sdm:Calibration, sdm:calibrationTargetVariable, sd:VariablePresentation</t>
-  </si>
-  <si>
     <t>sdm:ModelConfiguration, sdm:parameterAssignment, xsd:string</t>
   </si>
   <si>
@@ -1219,6 +1220,27 @@
   <si>
     <t>Needed for the calibrations of a model, in order to describe them transparently</t>
   </si>
+  <si>
+    <t>sdm:ModelConfiguration, sdm:ModelConfigurationTargetVariable, sd:VariablePresentation</t>
+  </si>
+  <si>
+    <t>sdm:ModelConfiguration, sdm:ModelConfigurationMethod, xsd:string</t>
+  </si>
+  <si>
+    <t>sdm:ModelConfiguration, sdm:adjustableVariable, sd:VariablePresentation</t>
+  </si>
+  <si>
+    <t>Is this model calibration still valid?</t>
+  </si>
+  <si>
+    <t>What temporal coverage was this model calibrated with?</t>
+  </si>
+  <si>
+    <t>sdm:validUntil</t>
+  </si>
+  <si>
+    <t>sdm:calibrationInterval</t>
+  </si>
 </sst>
 </file>
 
@@ -1233,11 +1255,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1394,7 +1418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1566,6 +1590,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -60521,8 +60548,8 @@
   </sheetPr>
   <dimension ref="A1:E1252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -60570,7 +60597,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
-        <f t="shared" ref="A3:A51" si="0">CONCATENATE("CQ",ROW(A3)-2)</f>
+        <f t="shared" ref="A3:A53" si="0">CONCATENATE("CQ",ROW(A3)-2)</f>
         <v>CQ1</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -60580,7 +60607,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>245</v>
@@ -60810,7 +60837,7 @@
         <v>143</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E16" s="23"/>
     </row>
@@ -60826,7 +60853,7 @@
         <v>265</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E17" s="23"/>
     </row>
@@ -60842,7 +60869,7 @@
         <v>264</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E18" s="23"/>
     </row>
@@ -60980,7 +61007,7 @@
         <v>179</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>245</v>
@@ -60998,7 +61025,7 @@
         <v>185</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>245</v>
@@ -61064,7 +61091,7 @@
         <v>200</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E31" s="26"/>
     </row>
@@ -61134,7 +61161,7 @@
         <v>281</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E35" s="26"/>
     </row>
@@ -61162,7 +61189,7 @@
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="58" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E37" s="26"/>
     </row>
@@ -61194,7 +61221,7 @@
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="58" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E39" s="26"/>
     </row>
@@ -61210,7 +61237,7 @@
         <v>286</v>
       </c>
       <c r="D40" s="58" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E40" s="26"/>
     </row>
@@ -61272,7 +61299,7 @@
         <v>296</v>
       </c>
       <c r="D44" s="58" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E44" s="26"/>
     </row>
@@ -61288,7 +61315,7 @@
         <v>295</v>
       </c>
       <c r="D45" s="58" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E45" s="26"/>
     </row>
@@ -61304,10 +61331,10 @@
         <v>298</v>
       </c>
       <c r="D46" s="58" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
@@ -61316,13 +61343,13 @@
         <v>CQ45</v>
       </c>
       <c r="B47" s="55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C47" s="55" t="s">
         <v>294</v>
       </c>
       <c r="D47" s="59" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="E47" s="55"/>
     </row>
@@ -61332,13 +61359,13 @@
         <v>CQ46</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C48" s="57" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D48" s="60" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E48" s="57"/>
     </row>
@@ -61348,11 +61375,11 @@
         <v>CQ47</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C49" s="57"/>
       <c r="D49" s="60" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E49" s="57"/>
     </row>
@@ -61362,13 +61389,13 @@
         <v>CQ48</v>
       </c>
       <c r="B50" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="C50" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="C50" s="57" t="s">
-        <v>304</v>
-      </c>
       <c r="D50" s="60" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E50" s="57"/>
     </row>
@@ -61378,21 +61405,39 @@
         <v>CQ49</v>
       </c>
       <c r="B51" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="C51" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="C51" s="57" t="s">
-        <v>326</v>
-      </c>
       <c r="D51" s="57" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E51" s="57"/>
     </row>
-    <row r="52" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
-    </row>
-    <row r="53" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
+    <row r="52" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>CQ50</v>
+      </c>
+      <c r="B52" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="D52" s="65" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>CQ51</v>
+      </c>
+      <c r="B53" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="D53" s="65" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="54" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47"/>

--- a/requirements/ModelCatalogRequirements.xlsx
+++ b/requirements/ModelCatalogRequirements.xlsx
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="334">
   <si>
     <t>What?</t>
   </si>
@@ -1241,6 +1241,15 @@
   <si>
     <t>sdm:calibrationInterval</t>
   </si>
+  <si>
+    <t>sdm:stepSize</t>
+  </si>
+  <si>
+    <t>CQ52</t>
+  </si>
+  <si>
+    <t>What is the increment we should add to a model to prepare incremental iterations on executions?</t>
+  </si>
 </sst>
 </file>
 
@@ -1418,7 +1427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1586,13 +1595,14 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1935,7 +1945,7 @@
       <c r="AC1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="64" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1980,7 +1990,7 @@
       <c r="AC2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
@@ -2023,7 +2033,7 @@
       <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
@@ -2066,7 +2076,7 @@
       <c r="AC4" s="5"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
@@ -2109,7 +2119,7 @@
       <c r="AC5" s="5"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
@@ -2150,7 +2160,7 @@
       <c r="AC6" s="5"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="8" t="s">
         <v>50</v>
       </c>
@@ -2191,7 +2201,7 @@
       <c r="AC7" s="5"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="8" t="s">
         <v>60</v>
       </c>
@@ -2232,7 +2242,7 @@
       <c r="AC8" s="5"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="8" t="s">
         <v>66</v>
       </c>
@@ -2273,7 +2283,7 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="8" t="s">
         <v>75</v>
       </c>
@@ -2314,7 +2324,7 @@
       <c r="AC10" s="5"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="8" t="s">
         <v>79</v>
       </c>
@@ -2355,7 +2365,7 @@
       <c r="AC11" s="5"/>
     </row>
     <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="8" t="s">
         <v>85</v>
       </c>
@@ -2396,7 +2406,7 @@
       <c r="AC12" s="5"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="8" t="s">
         <v>92</v>
       </c>
@@ -2437,7 +2447,7 @@
       <c r="AC13" s="5"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="8" t="s">
         <v>98</v>
       </c>
@@ -2478,7 +2488,7 @@
       <c r="AC14" s="5"/>
     </row>
     <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="64" t="s">
         <v>106</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2521,7 +2531,7 @@
       <c r="AC15" s="5"/>
     </row>
     <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="8" t="s">
         <v>112</v>
       </c>
@@ -2562,7 +2572,7 @@
       <c r="AC16" s="5"/>
     </row>
     <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="8" t="s">
         <v>121</v>
       </c>
@@ -2601,7 +2611,7 @@
       <c r="AC17" s="5"/>
     </row>
     <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="8" t="s">
         <v>129</v>
       </c>
@@ -2642,7 +2652,7 @@
       <c r="AC18" s="5"/>
     </row>
     <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="8" t="s">
         <v>137</v>
       </c>
@@ -60548,8 +60558,8 @@
   </sheetPr>
   <dimension ref="A1:E1252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="D41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -61303,7 +61313,7 @@
       </c>
       <c r="E44" s="26"/>
     </row>
-    <row r="45" spans="1:5" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="str">
         <f t="shared" si="0"/>
         <v>CQ43</v>
@@ -61319,7 +61329,7 @@
       </c>
       <c r="E45" s="26"/>
     </row>
-    <row r="46" spans="1:5" s="41" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="str">
         <f t="shared" si="0"/>
         <v>CQ44</v>
@@ -61420,10 +61430,10 @@
         <f t="shared" si="0"/>
         <v>CQ50</v>
       </c>
-      <c r="B52" s="63" t="s">
+      <c r="B52" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="D52" s="65" t="s">
+      <c r="D52" s="63" t="s">
         <v>329</v>
       </c>
     </row>
@@ -61432,15 +61442,23 @@
         <f t="shared" si="0"/>
         <v>CQ51</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="D53" s="65" t="s">
+      <c r="D53" s="63" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
+      <c r="A54" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="B54" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="D54" s="66" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="55" spans="1:5" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47"/>
